--- a/spec/support/example2.xlsx
+++ b/spec/support/example2.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">HOSPITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">FECHA ENCUESTA</t>
+    <t xml:space="preserve">FECHA ENCUESTA (dd/mm/aa)</t>
   </si>
   <si>
     <t xml:space="preserve">NOMBRE COMPLETO</t>
   </si>
   <si>
-    <t xml:space="preserve">FECHA DE NACIMIENTO</t>
+    <t xml:space="preserve">FECHA DE NACIMIENTO (mm/dd/aa)</t>
   </si>
   <si>
     <t xml:space="preserve">DIRECCION DOMICILIO</t>
@@ -197,7 +197,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -262,6 +262,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -370,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,11 +414,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,7 +450,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -459,11 +470,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,23 +574,19 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.5051020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.6479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,7 +721,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="53.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -738,7 +745,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="86.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -775,7 +782,7 @@
       <c r="L8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="N8" s="8" t="s">
@@ -784,76 +791,76 @@
       <c r="O8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="14" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="16" t="n">
         <v>37663</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="19"/>
+      <c r="R9" s="20"/>
       <c r="S9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="16" t="n">
         <v>37664</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="4"/>
@@ -863,40 +870,40 @@
       <c r="L10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="11"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P10" s="4"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="21"/>
       <c r="S10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="16" t="n">
         <v>37665</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="4"/>
@@ -905,180 +912,180 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="21"/>
+      <c r="N11" s="22"/>
       <c r="O11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="P11" s="4"/>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="16" t="n">
         <v>37666</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12" t="s">
         <v>48</v>
       </c>
       <c r="P12" s="4"/>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="20"/>
+      <c r="R12" s="21"/>
       <c r="S12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15" t="n">
+      <c r="D13" s="17"/>
+      <c r="E13" s="16" t="n">
         <v>37667</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="22" t="s">
+      <c r="K13" s="24"/>
+      <c r="L13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22" t="s">
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
       <c r="S13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="11"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="23"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="11"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="20"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="23"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="19"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="20"/>
       <c r="S15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="11"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="19"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="20"/>
       <c r="S16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="26"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="27"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="23"/>
+      <c r="K17" s="24"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="11"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
       <c r="S17" s="4"/>
     </row>
   </sheetData>
